--- a/Documents/COMP1640 Group04 CMS Sprint04.xlsx
+++ b/Documents/COMP1640 Group04 CMS Sprint04.xlsx
@@ -797,40 +797,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
@@ -927,11 +927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246476800"/>
-        <c:axId val="246478720"/>
+        <c:axId val="208668928"/>
+        <c:axId val="125531264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246476800"/>
+        <c:axId val="208668928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246478720"/>
+        <c:crossAx val="125531264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +978,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246478720"/>
+        <c:axId val="125531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246476800"/>
+        <c:crossAx val="208668928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1334,7 +1334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1348,7 +1348,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="2"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="P7" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="17">
         <f t="shared" si="2"/>
@@ -1792,51 +1792,51 @@
       </c>
       <c r="D10" s="27">
         <f>C7</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="27">
         <f>$C$7-SUM(E$3:E$6)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" ref="F10:S10" si="4">E10-SUM(F3:F6)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="27">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10" s="27">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N10" s="27">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O10" s="27">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P10" s="27">
         <f t="shared" si="4"/>
